--- a/Lyric Analysis/Resources/Excel Files/Rap.xlsx
+++ b/Lyric Analysis/Resources/Excel Files/Rap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="882">
   <si>
     <t>Oh</t>
   </si>
@@ -33,9 +33,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Cum</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Cumming</t>
   </si>
   <si>
-    <t>And</t>
-  </si>
-  <si>
     <t>That</t>
   </si>
   <si>
@@ -525,9 +519,6 @@
     <t>Thats</t>
   </si>
   <si>
-    <t>The</t>
-  </si>
-  <si>
     <t>With</t>
   </si>
   <si>
@@ -1636,9 +1627,6 @@
   </si>
   <si>
     <t>Text</t>
-  </si>
-  <si>
-    <t>An</t>
   </si>
   <si>
     <t>Invite</t>
@@ -3008,7 +2996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3051,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3059,7 +3047,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3075,7 +3063,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3083,7 +3071,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3107,7 +3095,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3123,7 +3111,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3163,7 +3151,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3219,7 +3207,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3227,7 +3215,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3307,7 +3295,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3315,7 +3303,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3387,7 +3375,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3395,7 +3383,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3603,7 +3591,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3611,7 +3599,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4307,22 +4295,6 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>162</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>163</v>
-      </c>
-      <c r="B164">
         <v>1</v>
       </c>
     </row>
@@ -4333,7 +4305,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4341,7 +4313,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1">
         <v>42</v>
@@ -4349,7 +4321,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -4357,7 +4329,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -4365,7 +4337,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B4">
         <v>27</v>
@@ -4381,7 +4353,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6">
         <v>26</v>
@@ -4389,39 +4361,39 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -4429,23 +4401,23 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -4453,31 +4425,31 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -4485,7 +4457,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -4493,23 +4465,23 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -4517,42 +4489,42 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4560,7 +4532,7 @@
         <v>174</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4568,36 +4540,36 @@
         <v>175</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -4605,31 +4577,31 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -4637,7 +4609,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -4645,7 +4617,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -4653,7 +4625,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -4661,7 +4633,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -4669,7 +4641,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -4677,7 +4649,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -4685,7 +4657,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -4693,7 +4665,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -4704,7 +4676,7 @@
         <v>186</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4712,7 +4684,7 @@
         <v>187</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4720,7 +4692,7 @@
         <v>188</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4741,7 +4713,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -4749,7 +4721,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -4757,7 +4729,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -4765,7 +4737,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4773,7 +4745,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -4781,7 +4753,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -4789,7 +4761,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -4797,7 +4769,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -4805,7 +4777,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -4813,7 +4785,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4821,7 +4793,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -4829,7 +4801,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -4837,7 +4809,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -4845,7 +4817,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -4909,31 +4881,31 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4941,7 +4913,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4949,7 +4921,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -4957,7 +4929,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4965,7 +4937,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -5077,7 +5049,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -5085,7 +5057,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -5093,7 +5065,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -5101,7 +5073,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -5181,7 +5153,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -5189,7 +5161,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -5197,7 +5169,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -5205,7 +5177,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -5213,7 +5185,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -5237,7 +5209,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>243</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -5245,7 +5217,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -5253,7 +5225,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -5261,7 +5233,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -5349,7 +5321,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -5357,7 +5329,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -5365,7 +5337,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -5373,7 +5345,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -5741,7 +5713,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>304</v>
+        <v>89</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -5749,7 +5721,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -5757,7 +5729,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5765,7 +5737,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>91</v>
+        <v>305</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -5773,7 +5745,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -5781,7 +5753,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5797,7 +5769,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -5805,7 +5777,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -5813,7 +5785,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -5821,7 +5793,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -5829,7 +5801,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5837,7 +5809,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -5845,7 +5817,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5861,7 +5833,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5869,7 +5841,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5877,7 +5849,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -5885,7 +5857,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -5933,7 +5905,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -5941,7 +5913,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>324</v>
+        <v>66</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -5949,33 +5921,9 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>325</v>
+        <v>37</v>
       </c>
       <c r="B202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>17</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>68</v>
-      </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
-        <v>39</v>
-      </c>
-      <c r="B205">
         <v>1</v>
       </c>
     </row>
@@ -5986,7 +5934,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B184"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5994,7 +5942,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>66</v>
@@ -6002,7 +5950,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -6010,7 +5958,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -6018,7 +5966,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -6026,7 +5974,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B5">
         <v>23</v>
@@ -6034,7 +5982,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -6042,7 +5990,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B7">
         <v>19</v>
@@ -6050,7 +5998,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -6058,7 +6006,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -6074,10 +6022,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6090,23 +6038,23 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -6114,7 +6062,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -6122,15 +6070,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -6138,7 +6086,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -6146,23 +6094,23 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -6170,7 +6118,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -6178,7 +6126,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>329</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -6186,7 +6134,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -6194,23 +6142,23 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>332</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -6218,7 +6166,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -6226,7 +6174,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -6242,31 +6190,31 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>333</v>
+        <v>118</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>331</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -6274,7 +6222,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>332</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -6282,7 +6230,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -6290,7 +6238,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>334</v>
+        <v>101</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -6298,7 +6246,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>335</v>
+        <v>182</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -6306,7 +6254,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -6314,7 +6262,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>333</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -6322,7 +6270,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>185</v>
+        <v>334</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -6330,7 +6278,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -6338,7 +6286,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>336</v>
+        <v>39</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -6346,7 +6294,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -6354,7 +6302,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -6362,7 +6310,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -6370,7 +6318,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -6378,7 +6326,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -6386,7 +6334,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>338</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -6394,7 +6342,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>339</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -6402,7 +6350,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>340</v>
+        <v>169</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -6410,26 +6358,26 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>342</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -6466,7 +6414,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>347</v>
+        <v>51</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -6474,7 +6422,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>348</v>
+        <v>32</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -6482,7 +6430,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -6490,7 +6438,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>348</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -6498,7 +6446,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -6506,7 +6454,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -6514,7 +6462,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -6522,7 +6470,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>351</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -6530,7 +6478,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>352</v>
+        <v>193</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -6538,7 +6486,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -6546,7 +6494,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -6554,7 +6502,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>196</v>
+        <v>354</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -6602,7 +6550,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>360</v>
+        <v>109</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -6610,7 +6558,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -6618,7 +6566,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -6626,7 +6574,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>361</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -6634,7 +6582,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -6650,7 +6598,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -6658,7 +6606,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>365</v>
+        <v>159</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -6666,7 +6614,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6674,7 +6622,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6682,7 +6630,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>366</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -6706,7 +6654,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>369</v>
+        <v>153</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -6714,7 +6662,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -6722,7 +6670,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>371</v>
+        <v>230</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -6730,7 +6678,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>155</v>
+        <v>370</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -6738,7 +6686,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -6746,7 +6694,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>233</v>
+        <v>372</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -6762,7 +6710,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>374</v>
+        <v>34</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -6770,7 +6718,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -6778,7 +6726,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -6786,7 +6734,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>376</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -6802,7 +6750,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>378</v>
+        <v>229</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -6810,7 +6758,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -6818,7 +6766,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -6826,7 +6774,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>232</v>
+        <v>380</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -6850,7 +6798,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -6858,7 +6806,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>384</v>
+        <v>136</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -6866,7 +6814,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -6874,7 +6822,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>318</v>
+        <v>140</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -6882,7 +6830,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -6890,7 +6838,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -6898,7 +6846,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -6906,7 +6854,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -6914,7 +6862,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>387</v>
+        <v>237</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -6922,7 +6870,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -6930,7 +6878,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>64</v>
+        <v>387</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -6938,7 +6886,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>240</v>
+        <v>52</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -6946,7 +6894,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -6954,7 +6902,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -6962,7 +6910,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>389</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -6970,7 +6918,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -6978,7 +6926,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>84</v>
+        <v>391</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -7010,7 +6958,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -7018,7 +6966,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>396</v>
+        <v>130</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -7026,7 +6974,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>397</v>
+        <v>131</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -7034,7 +6982,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -7042,7 +6990,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -7050,7 +6998,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>397</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -7058,7 +7006,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>398</v>
+        <v>12</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -7066,7 +7014,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -7074,7 +7022,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -7082,7 +7030,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>13</v>
+        <v>400</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -7138,7 +7086,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>407</v>
+        <v>139</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -7146,7 +7094,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -7154,7 +7102,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -7162,7 +7110,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>141</v>
+        <v>409</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -7178,7 +7126,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>411</v>
+        <v>18</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -7186,7 +7134,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -7194,7 +7142,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>413</v>
+        <v>30</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -7202,7 +7150,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -7210,7 +7158,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -7218,7 +7166,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>32</v>
+        <v>414</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -7258,7 +7206,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>419</v>
+        <v>10</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -7266,7 +7214,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -7274,7 +7222,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -7282,7 +7230,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -7314,7 +7262,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>425</v>
+        <v>283</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -7322,7 +7270,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>426</v>
+        <v>216</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -7330,7 +7278,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -7338,7 +7286,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>286</v>
+        <v>426</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -7346,7 +7294,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>219</v>
+        <v>427</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -7434,33 +7382,9 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>438</v>
+        <v>132</v>
       </c>
       <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>439</v>
-      </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>440</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>134</v>
-      </c>
-      <c r="B184">
         <v>1</v>
       </c>
     </row>
@@ -7471,7 +7395,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B239"/>
+  <dimension ref="A1:B235"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7479,7 +7403,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>25</v>
@@ -7495,23 +7419,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -7519,15 +7443,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -7535,31 +7459,31 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -7567,23 +7491,23 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -7591,7 +7515,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -7599,31 +7523,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>438</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>439</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>441</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -7631,31 +7555,31 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>358</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>442</v>
+        <v>174</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -7663,7 +7587,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>440</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -7671,7 +7595,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>270</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -7679,7 +7603,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>441</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -7687,7 +7611,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -7695,31 +7619,31 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>444</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -7727,7 +7651,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -7735,7 +7659,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>446</v>
+        <v>330</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -7743,7 +7667,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -7751,7 +7675,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>446</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -7759,7 +7683,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>333</v>
+        <v>230</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -7767,7 +7691,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -7775,7 +7699,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>449</v>
+        <v>32</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -7783,7 +7707,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -7791,7 +7715,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>450</v>
+        <v>184</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -7799,7 +7723,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>448</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -7807,7 +7731,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -7815,31 +7739,31 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>451</v>
+        <v>229</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>332</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -7847,7 +7771,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>449</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -7855,7 +7779,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -7863,7 +7787,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -7871,7 +7795,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -7879,7 +7803,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -7887,7 +7811,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>331</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -7895,7 +7819,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>453</v>
+        <v>296</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -7903,7 +7827,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>451</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -7911,7 +7835,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>334</v>
+        <v>452</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -7919,7 +7843,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>299</v>
+        <v>453</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -7951,7 +7875,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -7959,31 +7883,31 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>458</v>
+        <v>197</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>459</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -7991,7 +7915,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>458</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -7999,7 +7923,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -8007,7 +7931,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -8015,7 +7939,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -8023,7 +7947,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>462</v>
+        <v>109</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -8031,7 +7955,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -8039,7 +7963,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -8047,7 +7971,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>462</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -8055,7 +7979,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>463</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -8071,7 +7995,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>465</v>
+        <v>10</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -8079,7 +8003,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -8087,7 +8011,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -8095,7 +8019,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -8103,7 +8027,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>468</v>
+        <v>58</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -8111,7 +8035,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>469</v>
+        <v>132</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -8119,7 +8043,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -8127,7 +8051,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>468</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -8135,7 +8059,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>134</v>
+        <v>469</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -8143,7 +8067,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>470</v>
+        <v>101</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -8151,7 +8075,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -8159,7 +8083,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>472</v>
+        <v>295</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -8167,7 +8091,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -8175,7 +8099,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>473</v>
+        <v>131</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -8183,7 +8107,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>298</v>
+        <v>471</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -8191,7 +8115,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>472</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -8199,7 +8123,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -8207,7 +8131,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>474</v>
+        <v>35</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -8215,7 +8139,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -8223,7 +8147,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>474</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -8231,7 +8155,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -8239,7 +8163,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -8247,7 +8171,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -8255,7 +8179,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -8263,7 +8187,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>478</v>
+        <v>139</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -8271,7 +8195,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -8279,7 +8203,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -8287,31 +8211,31 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>478</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>415</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>481</v>
+        <v>163</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -8319,7 +8243,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -8327,7 +8251,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -8335,7 +8259,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>482</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -8383,7 +8307,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>488</v>
+        <v>50</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -8391,7 +8315,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>489</v>
+        <v>176</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -8399,7 +8323,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -8407,7 +8331,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>52</v>
+        <v>489</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -8415,7 +8339,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>490</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -8447,7 +8371,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>494</v>
+        <v>194</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -8455,7 +8379,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -8463,7 +8387,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -8471,7 +8395,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>197</v>
+        <v>496</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -8615,7 +8539,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>514</v>
+        <v>53</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -8623,7 +8547,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -8631,7 +8555,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -8639,7 +8563,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -8647,7 +8571,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -8655,7 +8579,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>518</v>
+        <v>435</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -8663,7 +8587,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>216</v>
+        <v>517</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -8671,7 +8595,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -8679,7 +8603,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -8687,7 +8611,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>520</v>
+        <v>164</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -8695,7 +8619,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>521</v>
+        <v>156</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -8703,7 +8627,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -8711,7 +8635,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>166</v>
+        <v>521</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -8719,7 +8643,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>522</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -8743,7 +8667,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>525</v>
+        <v>169</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -8751,7 +8675,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>526</v>
+        <v>283</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -8759,7 +8683,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -8767,7 +8691,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>172</v>
+        <v>526</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -8775,7 +8699,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>286</v>
+        <v>527</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -8815,7 +8739,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>532</v>
+        <v>192</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -8823,7 +8747,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>533</v>
+        <v>99</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -8831,7 +8755,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>534</v>
+        <v>426</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -8839,7 +8763,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -8847,7 +8771,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>101</v>
+        <v>532</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -8855,7 +8779,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>429</v>
+        <v>533</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -8863,7 +8787,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>323</v>
+        <v>534</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -8871,7 +8795,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>535</v>
+        <v>311</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -8879,7 +8803,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>536</v>
+        <v>273</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -8887,7 +8811,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>537</v>
+        <v>125</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -8895,7 +8819,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>314</v>
+        <v>535</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -8903,7 +8827,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>276</v>
+        <v>536</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -8911,7 +8835,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>127</v>
+        <v>537</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -8943,7 +8867,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>541</v>
+        <v>166</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -8951,7 +8875,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -8959,7 +8883,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -8967,7 +8891,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -8975,7 +8899,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>169</v>
+        <v>544</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -9015,7 +8939,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>549</v>
+        <v>340</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -9023,7 +8947,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>550</v>
+        <v>193</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -9031,7 +8955,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -9039,7 +8963,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -9047,7 +8971,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>343</v>
+        <v>551</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -9055,7 +8979,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>552</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -9095,7 +9019,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>557</v>
+        <v>141</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -9103,7 +9027,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -9111,7 +9035,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -9119,7 +9043,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -9127,7 +9051,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>143</v>
+        <v>560</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -9151,7 +9075,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>563</v>
+        <v>227</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -9159,7 +9083,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -9167,7 +9091,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -9175,7 +9099,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -9183,7 +9107,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>230</v>
+        <v>566</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -9207,7 +9131,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>569</v>
+        <v>326</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -9215,7 +9139,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -9223,7 +9147,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -9231,7 +9155,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -9239,7 +9163,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>329</v>
+        <v>105</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -9247,7 +9171,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -9255,7 +9179,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -9263,7 +9187,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>575</v>
+        <v>235</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -9271,7 +9195,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>107</v>
+        <v>361</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -9279,7 +9203,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -9287,7 +9211,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -9295,7 +9219,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>238</v>
+        <v>576</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -9303,7 +9227,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>364</v>
+        <v>577</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -9343,7 +9267,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>582</v>
+        <v>68</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -9351,41 +9275,9 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
-        <v>584</v>
-      </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
-        <v>585</v>
-      </c>
-      <c r="B237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
-        <v>70</v>
-      </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
-        <v>586</v>
-      </c>
-      <c r="B239">
         <v>1</v>
       </c>
     </row>
@@ -9396,7 +9288,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B392"/>
+  <dimension ref="A1:B387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9412,95 +9304,95 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -9508,31 +9400,31 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>326</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -9540,7 +9432,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -9548,47 +9440,47 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>583</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -9596,31 +9488,31 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>587</v>
+        <v>141</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>481</v>
+        <v>51</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -9628,7 +9520,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>584</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -9636,7 +9528,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -9644,7 +9536,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -9652,7 +9544,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>588</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -9660,7 +9552,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -9668,31 +9560,31 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>513</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -9700,7 +9592,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>516</v>
+        <v>31</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -9708,7 +9600,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -9716,7 +9608,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -9724,7 +9616,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -9732,7 +9624,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>330</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -9740,7 +9632,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>585</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -9748,7 +9640,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -9756,7 +9648,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>333</v>
+        <v>114</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -9764,7 +9656,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>589</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -9772,7 +9664,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -9780,31 +9672,31 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>586</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>473</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>492</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -9812,7 +9704,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>476</v>
+        <v>588</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -9820,7 +9712,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -9828,7 +9720,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>591</v>
+        <v>212</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -9836,7 +9728,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -9844,7 +9736,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>560</v>
+        <v>197</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -9852,7 +9744,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -9860,7 +9752,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>593</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -9868,7 +9760,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -9876,7 +9768,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -9884,7 +9776,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>590</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -9892,7 +9784,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>214</v>
+        <v>591</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -9900,7 +9792,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -9908,7 +9800,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>594</v>
+        <v>125</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -9916,7 +9808,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>595</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -9924,7 +9816,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -9932,7 +9824,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -9940,31 +9832,31 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>322</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>505</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>592</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>325</v>
+        <v>593</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -9972,7 +9864,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -9980,7 +9872,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>596</v>
+        <v>438</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -9988,7 +9880,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -9996,7 +9888,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -10004,7 +9896,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>441</v>
+        <v>127</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -10012,7 +9904,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>599</v>
+        <v>110</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -10020,7 +9912,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>600</v>
+        <v>131</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -10028,7 +9920,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>597</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -10036,7 +9928,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -10044,7 +9936,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -10052,7 +9944,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>601</v>
+        <v>300</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -10060,7 +9952,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -10068,7 +9960,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>598</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -10076,7 +9968,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>303</v>
+        <v>9</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -10084,7 +9976,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>281</v>
+        <v>511</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -10092,7 +9984,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>602</v>
+        <v>83</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -10100,7 +9992,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -10108,7 +10000,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>514</v>
+        <v>599</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -10116,7 +10008,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -10124,7 +10016,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>442</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -10132,7 +10024,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>603</v>
+        <v>7</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -10140,7 +10032,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>600</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -10148,7 +10040,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>445</v>
+        <v>601</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -10156,7 +10048,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>602</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -10164,7 +10056,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -10172,7 +10064,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -10180,7 +10072,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -10188,7 +10080,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>607</v>
+        <v>174</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -10196,7 +10088,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>608</v>
+        <v>118</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -10204,7 +10096,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>609</v>
+        <v>459</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -10212,7 +10104,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -10220,7 +10112,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>358</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -10228,7 +10120,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>462</v>
+        <v>48</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -10236,7 +10128,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>195</v>
+        <v>606</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -10244,7 +10136,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>361</v>
+        <v>607</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -10260,20 +10152,23 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>609</v>
+      </c>
       <c r="B109">
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>611</v>
+        <v>52</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -10281,7 +10176,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -10289,39 +10184,39 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>613</v>
+        <v>159</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>54</v>
+        <v>611</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>614</v>
+        <v>547</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -10329,7 +10224,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>612</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -10337,7 +10232,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>615</v>
+        <v>270</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -10345,7 +10240,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -10353,7 +10248,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -10361,7 +10256,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -10369,7 +10264,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>273</v>
+        <v>615</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -10377,7 +10272,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>230</v>
+        <v>616</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -10385,7 +10280,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>617</v>
+        <v>105</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -10393,7 +10288,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>618</v>
+        <v>57</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -10401,7 +10296,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -10409,7 +10304,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>620</v>
+        <v>376</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -10417,7 +10312,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>107</v>
+        <v>580</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -10425,7 +10320,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>59</v>
+        <v>618</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -10433,7 +10328,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>621</v>
+        <v>555</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -10441,7 +10336,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>379</v>
+        <v>242</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -10449,7 +10344,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>584</v>
+        <v>619</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -10457,7 +10352,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>622</v>
+        <v>420</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -10465,7 +10360,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>559</v>
+        <v>620</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -10473,7 +10368,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -10481,7 +10376,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>623</v>
+        <v>389</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -10489,7 +10384,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -10497,7 +10392,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>624</v>
+        <v>154</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -10505,7 +10400,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -10513,7 +10408,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>392</v>
+        <v>621</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -10521,7 +10416,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>418</v>
+        <v>622</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -10529,7 +10424,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>156</v>
+        <v>623</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -10537,7 +10432,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>624</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -10545,7 +10440,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>625</v>
+        <v>85</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -10553,7 +10448,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -10561,7 +10456,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -10569,7 +10464,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -10577,7 +10472,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>87</v>
+        <v>628</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -10585,7 +10480,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>629</v>
+        <v>134</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -10593,7 +10488,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -10601,7 +10496,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -10609,7 +10504,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>632</v>
+        <v>341</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -10617,7 +10512,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>136</v>
+        <v>631</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -10625,7 +10520,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -10633,7 +10528,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -10641,7 +10536,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>344</v>
+        <v>634</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -10705,7 +10600,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>642</v>
+        <v>437</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -10713,7 +10608,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>643</v>
+        <v>216</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -10721,7 +10616,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>644</v>
+        <v>37</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -10729,7 +10624,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>645</v>
+        <v>502</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -10737,7 +10632,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>440</v>
+        <v>237</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -10745,7 +10640,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -10753,7 +10648,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>39</v>
+        <v>642</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -10761,7 +10656,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>505</v>
+        <v>643</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -10769,7 +10664,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>240</v>
+        <v>469</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -10777,7 +10672,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>95</v>
+        <v>644</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -10785,7 +10680,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -10793,7 +10688,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -10801,7 +10696,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>472</v>
+        <v>647</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -10809,7 +10704,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>648</v>
+        <v>477</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -10817,7 +10712,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>649</v>
+        <v>398</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -10825,7 +10720,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -10833,7 +10728,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -10841,7 +10736,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>480</v>
+        <v>650</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -10849,7 +10744,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>401</v>
+        <v>107</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -10857,7 +10752,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -10865,7 +10760,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -10873,7 +10768,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -10881,7 +10776,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>109</v>
+        <v>654</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -10953,7 +10848,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>663</v>
+        <v>30</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -10961,7 +10856,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>664</v>
+        <v>311</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -10969,7 +10864,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -10977,7 +10872,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -10985,7 +10880,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>665</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -10993,7 +10888,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>314</v>
+        <v>666</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -11073,7 +10968,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>676</v>
+        <v>386</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -11081,7 +10976,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -11089,7 +10984,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -11097,7 +10992,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -11105,7 +11000,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>389</v>
+        <v>679</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -11121,7 +11016,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>681</v>
+        <v>112</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -11129,7 +11024,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -11137,7 +11032,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -11145,7 +11040,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>539</v>
+        <v>146</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -11153,7 +11048,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -11161,7 +11056,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>114</v>
+        <v>684</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -11177,7 +11072,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>686</v>
+        <v>179</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -11185,7 +11080,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>148</v>
+        <v>686</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -11217,7 +11112,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>182</v>
+        <v>690</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -11225,7 +11120,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -11233,7 +11128,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -11241,7 +11136,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -11249,7 +11144,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -11257,7 +11152,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -11265,7 +11160,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -11273,7 +11168,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -11281,7 +11176,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -11289,7 +11184,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -11297,7 +11192,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -11305,7 +11200,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -11313,7 +11208,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -11321,7 +11216,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -11329,7 +11224,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -11337,7 +11232,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>704</v>
+        <v>581</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -11353,7 +11248,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>706</v>
+        <v>421</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -11361,7 +11256,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -11369,7 +11264,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -11377,7 +11272,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>585</v>
+        <v>708</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -11393,7 +11288,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>424</v>
+        <v>710</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -11401,7 +11296,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -11409,7 +11304,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -11417,7 +11312,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -11425,7 +11320,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -11433,7 +11328,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>714</v>
+        <v>377</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -11473,7 +11368,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>380</v>
+        <v>719</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -11481,7 +11376,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -11489,7 +11384,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -11497,7 +11392,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>721</v>
+        <v>396</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -11537,7 +11432,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>399</v>
+        <v>726</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -11545,7 +11440,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -11553,7 +11448,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>727</v>
+        <v>94</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -11569,7 +11464,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>729</v>
+        <v>479</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -11577,7 +11472,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -11585,7 +11480,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -11593,7 +11488,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -11601,7 +11496,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -11609,7 +11504,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -11617,7 +11512,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -11625,7 +11520,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>734</v>
+        <v>56</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -11633,7 +11528,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -11641,7 +11536,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -11649,7 +11544,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>477</v>
+        <v>734</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -11657,7 +11552,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -11665,7 +11560,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>58</v>
+        <v>736</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -11673,7 +11568,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -11697,7 +11592,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>739</v>
+        <v>392</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -11705,7 +11600,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -11713,7 +11608,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>111</v>
+        <v>740</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -11737,7 +11632,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>395</v>
+        <v>743</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -11745,7 +11640,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -11753,7 +11648,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -11761,7 +11656,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -11769,7 +11664,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -11777,7 +11672,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -11785,7 +11680,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -11793,7 +11688,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -11801,7 +11696,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -11809,7 +11704,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>751</v>
+        <v>543</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -11817,7 +11712,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>752</v>
+        <v>450</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -11825,7 +11720,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -11833,7 +11728,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -11841,7 +11736,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -11849,7 +11744,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -11857,7 +11752,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>453</v>
+        <v>755</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -11889,7 +11784,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>523</v>
+        <v>759</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -11897,7 +11792,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -11905,7 +11800,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -11913,7 +11808,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -11921,7 +11816,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>762</v>
+        <v>564</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -11929,7 +11824,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>763</v>
+        <v>431</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -11937,7 +11832,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -11945,7 +11840,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -11953,7 +11848,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>766</v>
+        <v>238</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -11961,7 +11856,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>568</v>
+        <v>765</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -11969,7 +11864,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>434</v>
+        <v>766</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -11993,7 +11888,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>241</v>
+        <v>769</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -12001,7 +11896,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -12009,7 +11904,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -12017,7 +11912,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -12025,7 +11920,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>772</v>
+        <v>220</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -12041,7 +11936,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>774</v>
+        <v>517</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -12049,7 +11944,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -12057,7 +11952,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>776</v>
+        <v>364</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -12065,7 +11960,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -12073,7 +11968,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -12081,7 +11976,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>520</v>
+        <v>185</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -12089,7 +11984,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -12097,7 +11992,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>367</v>
+        <v>777</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -12105,7 +12000,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>187</v>
+        <v>778</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -12121,7 +12016,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>188</v>
+        <v>780</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -12129,7 +12024,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -12137,7 +12032,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -12145,7 +12040,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>782</v>
+        <v>171</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -12161,7 +12056,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>784</v>
+        <v>76</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -12169,7 +12064,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -12177,7 +12072,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -12185,7 +12080,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -12193,7 +12088,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -12201,7 +12096,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>78</v>
+        <v>787</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -12225,7 +12120,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>324</v>
+        <v>475</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -12233,7 +12128,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>790</v>
+        <v>95</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -12241,7 +12136,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -12249,7 +12144,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -12257,7 +12152,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -12265,7 +12160,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>478</v>
+        <v>793</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -12273,7 +12168,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>97</v>
+        <v>794</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -12281,7 +12176,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -12289,7 +12184,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -12297,7 +12192,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -12305,7 +12200,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -12313,7 +12208,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -12321,7 +12216,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -12329,7 +12224,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -12337,7 +12232,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -12345,7 +12240,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>802</v>
+        <v>121</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -12361,7 +12256,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>804</v>
+        <v>11</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -12369,7 +12264,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -12377,7 +12272,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -12385,7 +12280,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>123</v>
+        <v>806</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -12401,7 +12296,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>12</v>
+        <v>808</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -12409,7 +12304,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -12417,7 +12312,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>809</v>
+        <v>558</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -12457,7 +12352,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>562</v>
+        <v>814</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -12465,7 +12360,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>814</v>
+        <v>390</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -12473,7 +12368,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>815</v>
+        <v>54</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -12481,7 +12376,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -12489,49 +12384,9 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B387">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" t="s">
-        <v>818</v>
-      </c>
-      <c r="B388">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" t="s">
-        <v>393</v>
-      </c>
-      <c r="B389">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" t="s">
-        <v>56</v>
-      </c>
-      <c r="B390">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" t="s">
-        <v>819</v>
-      </c>
-      <c r="B391">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" t="s">
-        <v>820</v>
-      </c>
-      <c r="B392">
         <v>1</v>
       </c>
     </row>
@@ -12542,7 +12397,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12566,7 +12421,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -12574,7 +12429,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -12582,7 +12437,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -12590,7 +12445,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -12598,7 +12453,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -12606,7 +12461,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -12614,7 +12469,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -12622,7 +12477,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -12630,7 +12485,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -12638,7 +12493,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -12646,7 +12501,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -12654,55 +12509,55 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>821</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>822</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>825</v>
+        <v>132</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>826</v>
+        <v>174</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -12710,23 +12565,23 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>810</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>363</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -12734,7 +12589,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>814</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -12742,7 +12597,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>366</v>
+        <v>823</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -12750,31 +12605,31 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>824</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>827</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -12782,7 +12637,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -12790,7 +12645,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>505</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -12798,7 +12653,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>829</v>
+        <v>101</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -12806,7 +12661,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -12814,7 +12669,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>508</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -12822,7 +12677,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>415</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -12830,7 +12685,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>826</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -12838,7 +12693,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -12846,7 +12701,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>418</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -12854,7 +12709,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>830</v>
+        <v>589</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -12862,7 +12717,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -12870,31 +12725,31 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>291</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>593</v>
+        <v>203</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>294</v>
+        <v>827</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -12902,7 +12757,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -12910,7 +12765,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -12918,7 +12773,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>831</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -12926,7 +12781,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -12934,7 +12789,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -12942,7 +12797,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>456</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -12950,7 +12805,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>601</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -12958,7 +12813,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>828</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -12966,7 +12821,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>459</v>
+        <v>50</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -12974,7 +12829,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>605</v>
+        <v>460</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -12982,7 +12837,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>832</v>
+        <v>446</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -12990,7 +12845,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -12998,7 +12853,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>463</v>
+        <v>829</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -13006,7 +12861,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>449</v>
+        <v>830</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -13014,7 +12869,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -13022,7 +12877,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>833</v>
+        <v>421</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -13030,31 +12885,31 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>832</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>424</v>
+        <v>684</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -13062,7 +12917,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -13070,7 +12925,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>688</v>
+        <v>835</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -13078,7 +12933,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>837</v>
+        <v>529</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -13086,7 +12941,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -13094,7 +12949,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -13102,7 +12957,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>532</v>
+        <v>49</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -13110,7 +12965,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>840</v>
+        <v>789</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -13118,7 +12973,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>841</v>
+        <v>614</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -13126,7 +12981,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>727</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -13134,7 +12989,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>793</v>
+        <v>51</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -13142,7 +12997,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>618</v>
+        <v>302</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -13150,7 +13005,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>731</v>
+        <v>12</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -13158,7 +13013,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -13166,7 +13021,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -13174,7 +13029,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>838</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -13182,7 +13037,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>333</v>
+        <v>607</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -13190,7 +13045,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>363</v>
+        <v>111</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -13198,7 +13053,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -13206,7 +13061,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>611</v>
+        <v>840</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -13214,7 +13069,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>841</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -13222,7 +13077,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -13230,7 +13085,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>844</v>
+        <v>696</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -13238,7 +13093,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -13246,7 +13101,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -13254,7 +13109,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>700</v>
+        <v>845</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -13262,7 +13117,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>847</v>
+        <v>228</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -13270,7 +13125,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -13278,7 +13133,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>849</v>
+        <v>626</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -13286,7 +13141,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>231</v>
+        <v>847</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -13294,7 +13149,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>850</v>
+        <v>543</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -13302,7 +13157,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>630</v>
+        <v>848</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -13310,7 +13165,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>851</v>
+        <v>27</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -13318,7 +13173,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>547</v>
+        <v>849</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -13326,7 +13181,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -13334,7 +13189,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>851</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -13342,7 +13197,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -13350,7 +13205,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>854</v>
+        <v>587</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -13358,7 +13213,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -13366,7 +13221,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>856</v>
+        <v>183</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -13374,7 +13229,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>591</v>
+        <v>854</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -13382,7 +13237,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>857</v>
+        <v>645</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -13390,7 +13245,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>855</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -13398,7 +13253,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>858</v>
+        <v>283</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -13406,7 +13261,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>649</v>
+        <v>856</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -13414,7 +13269,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -13422,7 +13277,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>286</v>
+        <v>858</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -13430,7 +13285,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -13438,7 +13293,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>861</v>
+        <v>70</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -13446,7 +13301,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -13454,7 +13309,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -13462,7 +13317,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>72</v>
+        <v>862</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -13470,7 +13325,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>864</v>
+        <v>178</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -13478,7 +13333,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -13486,7 +13341,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>866</v>
+        <v>71</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -13494,7 +13349,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -13502,7 +13357,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -13510,7 +13365,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>451</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -13518,7 +13373,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>865</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -13526,7 +13381,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -13534,7 +13389,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>454</v>
+        <v>867</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -13542,7 +13397,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>869</v>
+        <v>811</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -13550,7 +13405,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>870</v>
+        <v>184</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -13558,7 +13413,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -13566,7 +13421,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>815</v>
+        <v>465</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -13574,7 +13429,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>187</v>
+        <v>869</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -13582,7 +13437,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>872</v>
+        <v>39</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -13590,7 +13445,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>468</v>
+        <v>870</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -13598,7 +13453,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>873</v>
+        <v>69</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -13606,7 +13461,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>41</v>
+        <v>871</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -13614,7 +13469,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -13622,7 +13477,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -13630,7 +13485,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -13638,7 +13493,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -13646,7 +13501,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>119</v>
+        <v>875</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -13654,7 +13509,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>877</v>
+        <v>386</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -13662,7 +13517,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -13670,7 +13525,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>879</v>
+        <v>197</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -13678,7 +13533,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>389</v>
+        <v>877</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -13686,7 +13541,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -13694,7 +13549,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>200</v>
+        <v>541</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -13702,7 +13557,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>881</v>
+        <v>52</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -13710,7 +13565,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -13718,7 +13573,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>545</v>
+        <v>131</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -13726,7 +13581,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>54</v>
+        <v>880</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -13734,33 +13589,9 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>133</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>884</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>885</v>
-      </c>
-      <c r="B152">
         <v>1</v>
       </c>
     </row>
